--- a/Code/Results/Cases/Case_2_145/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_145/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.1236187269135</v>
+        <v>19.23504723507479</v>
       </c>
       <c r="C2">
-        <v>19.34304170089968</v>
+        <v>12.18441315306231</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.855797900652982</v>
+        <v>14.20124510163991</v>
       </c>
       <c r="F2">
-        <v>41.37819413138742</v>
+        <v>45.95116358346976</v>
       </c>
       <c r="G2">
-        <v>2.063795713765719</v>
+        <v>3.683102720678727</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.635338001728038</v>
+        <v>9.150573405242156</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.72976432290155</v>
+        <v>19.85570333019751</v>
       </c>
       <c r="N2">
-        <v>13.54003513720929</v>
+        <v>19.82492251762836</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.21643251423154</v>
+        <v>18.69473626863942</v>
       </c>
       <c r="C3">
-        <v>17.91649243555941</v>
+        <v>11.66443919940734</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.76949638343982</v>
+        <v>14.21102626697968</v>
       </c>
       <c r="F3">
-        <v>39.51570389465988</v>
+        <v>45.68811050696194</v>
       </c>
       <c r="G3">
-        <v>2.077387020979428</v>
+        <v>3.687653317454016</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.680050084170079</v>
+        <v>9.17430836948998</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.85673804746871</v>
+        <v>19.74759703417283</v>
       </c>
       <c r="N3">
-        <v>13.73484797113753</v>
+        <v>19.87816193193624</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.99300341920142</v>
+        <v>18.36167746262475</v>
       </c>
       <c r="C4">
-        <v>17.00116659930019</v>
+        <v>11.33734472051807</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.718895796940023</v>
+        <v>14.21793458570563</v>
       </c>
       <c r="F4">
-        <v>38.374559005503</v>
+        <v>45.53840437730451</v>
       </c>
       <c r="G4">
-        <v>2.085872134419801</v>
+        <v>3.690588238899446</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.710658213893532</v>
+        <v>9.190004455167362</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.31095701218823</v>
+        <v>19.68601777239489</v>
       </c>
       <c r="N4">
-        <v>13.85975879022375</v>
+        <v>19.9128189132649</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.48101156862562</v>
+        <v>18.22585765160736</v>
       </c>
       <c r="C5">
-        <v>16.61800901008839</v>
+        <v>11.20230926432672</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.698818372612853</v>
+        <v>14.22097717017351</v>
       </c>
       <c r="F5">
-        <v>37.91049221043217</v>
+        <v>45.48040716430535</v>
       </c>
       <c r="G5">
-        <v>2.08936966025122</v>
+        <v>3.691819808642884</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.723880890527623</v>
+        <v>9.196682829304251</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.08630288892015</v>
+        <v>19.66214987038455</v>
       </c>
       <c r="N5">
-        <v>13.91193569720164</v>
+        <v>19.92743606505276</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.39517770418656</v>
+        <v>18.20330609880418</v>
       </c>
       <c r="C6">
-        <v>16.55376609569905</v>
+        <v>11.17978867274052</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.695515783687857</v>
+        <v>14.2214961350739</v>
       </c>
       <c r="F6">
-        <v>37.8335041343551</v>
+        <v>45.47095958086675</v>
       </c>
       <c r="G6">
-        <v>2.08995294930656</v>
+        <v>3.692026462347474</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.726120599157261</v>
+        <v>9.197808799504081</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.0488708168155</v>
+        <v>19.65826121341107</v>
       </c>
       <c r="N6">
-        <v>13.92067514738191</v>
+        <v>19.92989305870628</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.98615321920284</v>
+        <v>18.35984582133143</v>
       </c>
       <c r="C7">
-        <v>16.9960406194709</v>
+        <v>11.33553031862875</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.71862289844599</v>
+        <v>14.21797469781527</v>
       </c>
       <c r="F7">
-        <v>38.36829602810533</v>
+        <v>45.53760997358226</v>
       </c>
       <c r="G7">
-        <v>2.085919136511503</v>
+        <v>3.690604704075166</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.710833558410605</v>
+        <v>9.190093380156632</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.30793602096761</v>
+        <v>19.68569089245538</v>
       </c>
       <c r="N7">
-        <v>13.86045737279487</v>
+        <v>19.91301404531733</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.47672977537346</v>
+        <v>19.04915526590316</v>
       </c>
       <c r="C8">
-        <v>18.85919365493287</v>
+        <v>12.0068788386833</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.825507424055077</v>
+        <v>14.20443054524045</v>
       </c>
       <c r="F8">
-        <v>40.73568066872903</v>
+        <v>45.85803712665225</v>
       </c>
       <c r="G8">
-        <v>2.068455836702904</v>
+        <v>3.6846426269056</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.650072043062122</v>
+        <v>9.158524061837587</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.43087155325307</v>
+        <v>19.81744465228566</v>
       </c>
       <c r="N8">
-        <v>13.60607032073726</v>
+        <v>19.84287065575936</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.95901005630913</v>
+        <v>20.38088984720274</v>
       </c>
       <c r="C9">
-        <v>22.21265950742801</v>
+        <v>13.25262297492615</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.057262046713074</v>
+        <v>14.18501600593088</v>
       </c>
       <c r="F9">
-        <v>45.38784081081435</v>
+        <v>46.57812381817424</v>
       </c>
       <c r="G9">
-        <v>2.035087819673506</v>
+        <v>3.674061593408139</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.558219857739774</v>
+        <v>9.105535547424715</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.69260523735428</v>
+        <v>20.11294250977691</v>
       </c>
       <c r="N9">
-        <v>13.15238879239828</v>
+        <v>19.72096258689939</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.03096716100284</v>
+        <v>21.33515210149229</v>
       </c>
       <c r="C10">
-        <v>24.51386529737512</v>
+        <v>14.11484584362959</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.246644607168351</v>
+        <v>14.17508824862969</v>
       </c>
       <c r="F10">
-        <v>48.8084983083214</v>
+        <v>47.16013813226837</v>
       </c>
       <c r="G10">
-        <v>2.010731749886872</v>
+        <v>3.666955084328369</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.51108918864422</v>
+        <v>9.07205715580271</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.55041137124837</v>
+        <v>20.35129978845493</v>
       </c>
       <c r="N10">
-        <v>12.85216754851188</v>
+        <v>19.64097383095274</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.38703008593929</v>
+        <v>21.76178257736786</v>
       </c>
       <c r="C11">
-        <v>25.53094328800077</v>
+        <v>14.49393307920819</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.33862582883065</v>
+        <v>14.17150955934355</v>
       </c>
       <c r="F11">
-        <v>50.36761467897263</v>
+        <v>47.43569552904999</v>
       </c>
       <c r="G11">
-        <v>1.999584862311025</v>
+        <v>3.663864990247677</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.495086067150581</v>
+        <v>9.058014447904366</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.36525571880788</v>
+        <v>20.4640242433218</v>
       </c>
       <c r="N11">
-        <v>12.72444716108203</v>
+        <v>19.60667403213621</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.89524957632142</v>
+        <v>21.92209638632984</v>
       </c>
       <c r="C12">
-        <v>25.91235720880642</v>
+        <v>14.63548225336981</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.37447778504121</v>
+        <v>14.17028889980062</v>
       </c>
       <c r="F12">
-        <v>50.95887343843896</v>
+        <v>47.54152836290922</v>
       </c>
       <c r="G12">
-        <v>1.995343964361936</v>
+        <v>3.662715210364838</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.489911678853657</v>
+        <v>9.052867839532</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.66979274506215</v>
+        <v>20.50729818470827</v>
       </c>
       <c r="N12">
-        <v>12.67753795270192</v>
+        <v>19.59398672097009</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.78601903016071</v>
+        <v>21.88762768551339</v>
       </c>
       <c r="C13">
-        <v>25.83036912899803</v>
+        <v>14.60508780925533</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.366707656751316</v>
+        <v>14.17054581280391</v>
       </c>
       <c r="F13">
-        <v>50.83148844301378</v>
+        <v>47.51867041602439</v>
       </c>
       <c r="G13">
-        <v>1.996258379713605</v>
+        <v>3.662961932343073</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.490984836948575</v>
+        <v>9.053968639184559</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.6043785910966</v>
+        <v>20.49795271949588</v>
       </c>
       <c r="N13">
-        <v>12.68757258858546</v>
+        <v>19.59670574292209</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.4289434797082</v>
+        <v>21.77499748832469</v>
       </c>
       <c r="C14">
-        <v>25.56239375624155</v>
+        <v>14.50561914456214</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.341553735648537</v>
+        <v>14.1714064407642</v>
       </c>
       <c r="F14">
-        <v>50.41623764548018</v>
+        <v>47.44437308999306</v>
       </c>
       <c r="G14">
-        <v>1.999236422680504</v>
+        <v>3.66376998972977</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.49464195775923</v>
+        <v>9.057587602671155</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.39038881402754</v>
+        <v>20.46757281456607</v>
       </c>
       <c r="N14">
-        <v>12.72055754251098</v>
+        <v>19.60562419487667</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.2095567437069</v>
+        <v>21.70584178407615</v>
       </c>
       <c r="C15">
-        <v>25.39778298362699</v>
+        <v>14.44442780691272</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.326285300171564</v>
+        <v>14.17195110916251</v>
       </c>
       <c r="F15">
-        <v>50.16201172247519</v>
+        <v>47.39905520407763</v>
       </c>
       <c r="G15">
-        <v>2.001057648222227</v>
+        <v>3.664267596834284</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.497000777362144</v>
+        <v>9.059826611625624</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.25880004438779</v>
+        <v>20.44903986699809</v>
       </c>
       <c r="N15">
-        <v>12.74095748507659</v>
+        <v>19.61112627300858</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.94156625372114</v>
+        <v>21.30710580972113</v>
       </c>
       <c r="C16">
-        <v>24.44684285681305</v>
+        <v>14.08979708549258</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.240765370098144</v>
+        <v>14.17534096334843</v>
       </c>
       <c r="F16">
-        <v>48.70669885504185</v>
+        <v>47.14234137884551</v>
       </c>
       <c r="G16">
-        <v>2.011458044379276</v>
+        <v>3.667159887985442</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.512252909486701</v>
+        <v>9.072998794913108</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.49657695537638</v>
+        <v>20.34401686560282</v>
       </c>
       <c r="N16">
-        <v>12.86070722203832</v>
+        <v>19.64325750195984</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.15352955680582</v>
+        <v>21.06045705114099</v>
       </c>
       <c r="C17">
-        <v>23.85621290155506</v>
+        <v>13.86879058963862</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.189911836766827</v>
+        <v>14.17766042715094</v>
       </c>
       <c r="F17">
-        <v>47.81492705645847</v>
+        <v>46.98757409817156</v>
       </c>
       <c r="G17">
-        <v>2.017814445509607</v>
+        <v>3.668970657039026</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.523070566590146</v>
+        <v>9.081383747192584</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.02144041780624</v>
+        <v>20.28066766560258</v>
       </c>
       <c r="N17">
-        <v>12.93655482444309</v>
+        <v>19.66350439282797</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.69633069966902</v>
+        <v>20.91789733283501</v>
       </c>
       <c r="C18">
-        <v>23.51366016357863</v>
+        <v>13.74044208384138</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.161197885865958</v>
+        <v>14.17908277992085</v>
       </c>
       <c r="F18">
-        <v>47.30225359509074</v>
+        <v>46.89957648050947</v>
       </c>
       <c r="G18">
-        <v>2.021464854588358</v>
+        <v>3.670025603207444</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.529797168374611</v>
+        <v>9.086318230332916</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.74528208514595</v>
+        <v>20.24463696988281</v>
       </c>
       <c r="N18">
-        <v>12.98100044452435</v>
+        <v>19.67534628440628</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.5408358741858</v>
+        <v>20.86951525630544</v>
       </c>
       <c r="C19">
-        <v>23.39717504952784</v>
+        <v>13.69677771751402</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.151562945868599</v>
+        <v>14.17957953200748</v>
       </c>
       <c r="F19">
-        <v>47.12870455315337</v>
+        <v>46.8699592550785</v>
       </c>
       <c r="G19">
-        <v>2.022700136220822</v>
+        <v>3.670385102623099</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.532158458987121</v>
+        <v>9.088008130709909</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.6512770740953</v>
+        <v>20.23250823449138</v>
       </c>
       <c r="N19">
-        <v>12.99618488368234</v>
+        <v>19.67938944718586</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.23782086991927</v>
+        <v>21.08678631131873</v>
       </c>
       <c r="C20">
-        <v>23.91937651896034</v>
+        <v>13.8924454286089</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.19526865615015</v>
+        <v>14.17740438405959</v>
       </c>
       <c r="F20">
-        <v>47.90982939985068</v>
+        <v>47.00394420603101</v>
       </c>
       <c r="G20">
-        <v>2.017138445973046</v>
+        <v>3.66877650769193</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.521866091169232</v>
+        <v>9.080479593351754</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.07231457182495</v>
+        <v>20.28736948064458</v>
       </c>
       <c r="N20">
-        <v>12.92839464421194</v>
+        <v>19.66132874067529</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.53396301786194</v>
+        <v>21.80811467524649</v>
       </c>
       <c r="C21">
-        <v>25.64120106268192</v>
+        <v>14.53489067928106</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.348912681982594</v>
+        <v>14.17115000514585</v>
       </c>
       <c r="F21">
-        <v>50.5381793340707</v>
+        <v>47.46615625821958</v>
       </c>
       <c r="G21">
-        <v>1.998362326773044</v>
+        <v>3.663532091979484</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.493542818487202</v>
+        <v>9.056519979551529</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.45334922885839</v>
+        <v>20.47648042448393</v>
       </c>
       <c r="N21">
-        <v>12.71082789106357</v>
+        <v>19.60299644372536</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.00417308726151</v>
+        <v>22.27223851202079</v>
       </c>
       <c r="C22">
-        <v>26.7450891906249</v>
+        <v>14.94305021162487</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.455395486412951</v>
+        <v>14.16784632165847</v>
       </c>
       <c r="F22">
-        <v>52.2612862072861</v>
+        <v>47.77686232251883</v>
       </c>
       <c r="G22">
-        <v>1.985969480879587</v>
+        <v>3.660223236580362</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.480256199464747</v>
+        <v>9.041858255577639</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.33265370894437</v>
+        <v>20.6034859593832</v>
       </c>
       <c r="N22">
-        <v>12.57723704331875</v>
+        <v>19.56662954157828</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.22203112805457</v>
+        <v>22.02524695564501</v>
       </c>
       <c r="C23">
-        <v>26.15767723475103</v>
+        <v>14.72631285085443</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.397936234495002</v>
+        <v>14.16953792583752</v>
       </c>
       <c r="F23">
-        <v>51.3409523839603</v>
+        <v>47.61026656594899</v>
       </c>
       <c r="G23">
-        <v>1.992598739648562</v>
+        <v>3.661978425004343</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.486830246213916</v>
+        <v>9.049592106230588</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.8653608696991</v>
+        <v>20.53539879610369</v>
       </c>
       <c r="N23">
-        <v>12.6476782729522</v>
+        <v>19.58587813380882</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.19972572940586</v>
+        <v>21.07488520107378</v>
       </c>
       <c r="C24">
-        <v>23.8908296058706</v>
+        <v>13.88175508187344</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.192845223876102</v>
+        <v>14.17751986433226</v>
       </c>
       <c r="F24">
-        <v>47.86692402313637</v>
+        <v>46.99654022224569</v>
       </c>
       <c r="G24">
-        <v>2.017444076992477</v>
+        <v>3.66886423927125</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.52240906175266</v>
+        <v>9.080888006677462</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.04932372269262</v>
+        <v>20.28433837428173</v>
       </c>
       <c r="N24">
-        <v>12.9320812592011</v>
+        <v>19.66231172489482</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.78723016883531</v>
+        <v>20.02405264372042</v>
       </c>
       <c r="C25">
-        <v>21.33566221988148</v>
+        <v>12.92430148453717</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.991686551475746</v>
+        <v>14.18950529638118</v>
       </c>
       <c r="F25">
-        <v>44.12910589445092</v>
+        <v>46.37378850960855</v>
       </c>
       <c r="G25">
-        <v>2.044056401533108</v>
+        <v>3.676806147591928</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.579797337578471</v>
+        <v>9.118914017235017</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.98600411203563</v>
+        <v>20.02916367507026</v>
       </c>
       <c r="N25">
-        <v>13.26978490097704</v>
+        <v>19.75226322434237</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_145/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_145/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.23504723507479</v>
+        <v>26.12361872691343</v>
       </c>
       <c r="C2">
-        <v>12.18441315306231</v>
+        <v>19.34304170089963</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.20124510163991</v>
+        <v>6.85579790065298</v>
       </c>
       <c r="F2">
-        <v>45.95116358346976</v>
+        <v>41.3781941313874</v>
       </c>
       <c r="G2">
-        <v>3.683102720678727</v>
+        <v>2.063795713765583</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.150573405242156</v>
+        <v>5.635338001728065</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.85570333019751</v>
+        <v>16.72976432290156</v>
       </c>
       <c r="N2">
-        <v>19.82492251762836</v>
+        <v>13.54003513720929</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.69473626863942</v>
+        <v>24.21643251423157</v>
       </c>
       <c r="C3">
-        <v>11.66443919940734</v>
+        <v>17.91649243555946</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.21102626697968</v>
+        <v>6.769496383440179</v>
       </c>
       <c r="F3">
-        <v>45.68811050696194</v>
+        <v>39.51570389465988</v>
       </c>
       <c r="G3">
-        <v>3.687653317454016</v>
+        <v>2.077387020979828</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.17430836948998</v>
+        <v>5.680050084170167</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.74759703417283</v>
+        <v>15.85673804746873</v>
       </c>
       <c r="N3">
-        <v>19.87816193193624</v>
+        <v>13.73484797113745</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.36167746262475</v>
+        <v>22.99300341920138</v>
       </c>
       <c r="C4">
-        <v>11.33734472051807</v>
+        <v>17.00116659930018</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.21793458570563</v>
+        <v>6.718895796940037</v>
       </c>
       <c r="F4">
-        <v>45.53840437730451</v>
+        <v>38.37455900550307</v>
       </c>
       <c r="G4">
-        <v>3.690588238899446</v>
+        <v>2.085872134419801</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.190004455167362</v>
+        <v>5.710658213893451</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.68601777239489</v>
+        <v>15.31095701218826</v>
       </c>
       <c r="N4">
-        <v>19.9128189132649</v>
+        <v>13.85975879022375</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.22585765160736</v>
+        <v>22.4810115686256</v>
       </c>
       <c r="C5">
-        <v>11.20230926432672</v>
+        <v>16.6180090100885</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.22097717017351</v>
+        <v>6.698818372613051</v>
       </c>
       <c r="F5">
-        <v>45.48040716430535</v>
+        <v>37.91049221043213</v>
       </c>
       <c r="G5">
-        <v>3.691819808642884</v>
+        <v>2.08936966025122</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.196682829304251</v>
+        <v>5.723880890527564</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.66214987038455</v>
+        <v>15.08630288892017</v>
       </c>
       <c r="N5">
-        <v>19.92743606505276</v>
+        <v>13.91193569720151</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.20330609880418</v>
+        <v>22.3951777041866</v>
       </c>
       <c r="C6">
-        <v>11.17978867274052</v>
+        <v>16.55376609569901</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.2214961350739</v>
+        <v>6.695515783688092</v>
       </c>
       <c r="F6">
-        <v>45.47095958086675</v>
+        <v>37.83350413435522</v>
       </c>
       <c r="G6">
-        <v>3.692026462347474</v>
+        <v>2.089952949306426</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.197808799504081</v>
+        <v>5.726120599157296</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.65826121341107</v>
+        <v>15.04887081681553</v>
       </c>
       <c r="N6">
-        <v>19.92989305870628</v>
+        <v>13.92067514738195</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.35984582133143</v>
+        <v>22.98615321920286</v>
       </c>
       <c r="C7">
-        <v>11.33553031862875</v>
+        <v>16.99604061947104</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.21797469781527</v>
+        <v>6.718622898446054</v>
       </c>
       <c r="F7">
-        <v>45.53760997358226</v>
+        <v>38.36829602810522</v>
       </c>
       <c r="G7">
-        <v>3.690604704075166</v>
+        <v>2.085919136511372</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.190093380156632</v>
+        <v>5.710833558410608</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.68569089245538</v>
+        <v>15.30793602096758</v>
       </c>
       <c r="N7">
-        <v>19.91301404531733</v>
+        <v>13.86045737279487</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.04915526590316</v>
+        <v>25.47672977537344</v>
       </c>
       <c r="C8">
-        <v>12.0068788386833</v>
+        <v>18.85919365493277</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.20443054524045</v>
+        <v>6.825507424054946</v>
       </c>
       <c r="F8">
-        <v>45.85803712665225</v>
+        <v>40.735680668729</v>
       </c>
       <c r="G8">
-        <v>3.6846426269056</v>
+        <v>2.068455836702768</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.158524061837587</v>
+        <v>5.650072043062226</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.81744465228566</v>
+        <v>16.43087155325305</v>
       </c>
       <c r="N8">
-        <v>19.84287065575936</v>
+        <v>13.60607032073728</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.38088984720274</v>
+        <v>29.95901005630905</v>
       </c>
       <c r="C9">
-        <v>13.25262297492615</v>
+        <v>22.21265950742783</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.18501600593088</v>
+        <v>7.057262046712955</v>
       </c>
       <c r="F9">
-        <v>46.57812381817424</v>
+        <v>45.38784081081438</v>
       </c>
       <c r="G9">
-        <v>3.674061593408139</v>
+        <v>2.03508781967311</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.105535547424715</v>
+        <v>5.558219857739777</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.11294250977691</v>
+        <v>18.69260523735425</v>
       </c>
       <c r="N9">
-        <v>19.72096258689939</v>
+        <v>13.15238879239831</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.33515210149229</v>
+        <v>33.03096716100271</v>
       </c>
       <c r="C10">
-        <v>14.11484584362959</v>
+        <v>24.5138652973752</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.17508824862969</v>
+        <v>7.246644607168184</v>
       </c>
       <c r="F10">
-        <v>47.16013813226837</v>
+        <v>48.80849830832143</v>
       </c>
       <c r="G10">
-        <v>3.666955084328369</v>
+        <v>2.010731749887131</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.07205715580271</v>
+        <v>5.511089188644219</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.35129978845493</v>
+        <v>20.55041137124837</v>
       </c>
       <c r="N10">
-        <v>19.64097383095274</v>
+        <v>12.85216754851193</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.76178257736786</v>
+        <v>34.38703008593932</v>
       </c>
       <c r="C11">
-        <v>14.49393307920819</v>
+        <v>25.53094328800073</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.17150955934355</v>
+        <v>7.338625828830596</v>
       </c>
       <c r="F11">
-        <v>47.43569552904999</v>
+        <v>50.36761467897267</v>
       </c>
       <c r="G11">
-        <v>3.663864990247677</v>
+        <v>1.999584862311163</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.058014447904366</v>
+        <v>5.495086067150579</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.4640242433218</v>
+        <v>21.36525571880791</v>
       </c>
       <c r="N11">
-        <v>19.60667403213621</v>
+        <v>12.72444716108198</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.92209638632984</v>
+        <v>34.89524957632158</v>
       </c>
       <c r="C12">
-        <v>14.63548225336981</v>
+        <v>25.91235720880659</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.17028889980062</v>
+        <v>7.374477785041551</v>
       </c>
       <c r="F12">
-        <v>47.54152836290922</v>
+        <v>50.95887343843902</v>
       </c>
       <c r="G12">
-        <v>3.662715210364838</v>
+        <v>1.9953439643622</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.052867839532</v>
+        <v>5.489911678853582</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.50729818470827</v>
+        <v>21.66979274506213</v>
       </c>
       <c r="N12">
-        <v>19.59398672097009</v>
+        <v>12.6775379527019</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.88762768551339</v>
+        <v>34.78601903016079</v>
       </c>
       <c r="C13">
-        <v>14.60508780925533</v>
+        <v>25.83036912899806</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.17054581280391</v>
+        <v>7.36670765675143</v>
       </c>
       <c r="F13">
-        <v>47.51867041602439</v>
+        <v>50.8314884430138</v>
       </c>
       <c r="G13">
-        <v>3.662961932343073</v>
+        <v>1.99625837971334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.053968639184559</v>
+        <v>5.490984836948559</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.49795271949588</v>
+        <v>21.6043785910966</v>
       </c>
       <c r="N13">
-        <v>19.59670574292209</v>
+        <v>12.68757258858539</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.77499748832469</v>
+        <v>34.42894347970828</v>
       </c>
       <c r="C14">
-        <v>14.50561914456214</v>
+        <v>25.56239375624149</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.1714064407642</v>
+        <v>7.341553735648278</v>
       </c>
       <c r="F14">
-        <v>47.44437308999306</v>
+        <v>50.41623764548022</v>
       </c>
       <c r="G14">
-        <v>3.66376998972977</v>
+        <v>1.999236422680369</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.057587602671155</v>
+        <v>5.494641957759133</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.46757281456607</v>
+        <v>21.39038881402756</v>
       </c>
       <c r="N14">
-        <v>19.60562419487667</v>
+        <v>12.72055754251096</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.70584178407615</v>
+        <v>34.20955674370691</v>
       </c>
       <c r="C15">
-        <v>14.44442780691272</v>
+        <v>25.39778298362699</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.17195110916251</v>
+        <v>7.326285300171431</v>
       </c>
       <c r="F15">
-        <v>47.39905520407763</v>
+        <v>50.16201172247518</v>
       </c>
       <c r="G15">
-        <v>3.664267596834284</v>
+        <v>2.001057648222232</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.059826611625624</v>
+        <v>5.497000777362126</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.44903986699809</v>
+        <v>21.25880004438782</v>
       </c>
       <c r="N15">
-        <v>19.61112627300858</v>
+        <v>12.74095748507661</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.30710580972113</v>
+        <v>32.94156625372098</v>
       </c>
       <c r="C16">
-        <v>14.08979708549258</v>
+        <v>24.44684285681304</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.17534096334843</v>
+        <v>7.240765370098087</v>
       </c>
       <c r="F16">
-        <v>47.14234137884551</v>
+        <v>48.70669885504184</v>
       </c>
       <c r="G16">
-        <v>3.667159887985442</v>
+        <v>2.011458044379144</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.072998794913108</v>
+        <v>5.512252909486739</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.34401686560282</v>
+        <v>20.49657695537635</v>
       </c>
       <c r="N16">
-        <v>19.64325750195984</v>
+        <v>12.86070722203842</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.06045705114099</v>
+        <v>32.15352955680591</v>
       </c>
       <c r="C17">
-        <v>13.86879058963862</v>
+        <v>23.85621290155509</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.17766042715094</v>
+        <v>7.189911836767046</v>
       </c>
       <c r="F17">
-        <v>46.98757409817156</v>
+        <v>47.81492705645849</v>
       </c>
       <c r="G17">
-        <v>3.668970657039026</v>
+        <v>2.017814445509612</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.081383747192584</v>
+        <v>5.523070566590095</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.28066766560258</v>
+        <v>20.02144041780619</v>
       </c>
       <c r="N17">
-        <v>19.66350439282797</v>
+        <v>12.93655482444308</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.91789733283501</v>
+        <v>31.69633069966917</v>
       </c>
       <c r="C18">
-        <v>13.74044208384138</v>
+        <v>23.51366016357859</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.17908277992085</v>
+        <v>7.161197885866089</v>
       </c>
       <c r="F18">
-        <v>46.89957648050947</v>
+        <v>47.30225359509074</v>
       </c>
       <c r="G18">
-        <v>3.670025603207444</v>
+        <v>2.021464854588485</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.086318230332916</v>
+        <v>5.529797168374604</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.24463696988281</v>
+        <v>19.74528208514601</v>
       </c>
       <c r="N18">
-        <v>19.67534628440628</v>
+        <v>12.98100044452435</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.86951525630544</v>
+        <v>31.54083587418584</v>
       </c>
       <c r="C19">
-        <v>13.69677771751402</v>
+        <v>23.39717504952799</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.17957953200748</v>
+        <v>7.151562945868831</v>
       </c>
       <c r="F19">
-        <v>46.8699592550785</v>
+        <v>47.12870455315337</v>
       </c>
       <c r="G19">
-        <v>3.670385102623099</v>
+        <v>2.022700136220827</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.088008130709909</v>
+        <v>5.532158458987202</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.23250823449138</v>
+        <v>19.6512770740953</v>
       </c>
       <c r="N19">
-        <v>19.67938944718586</v>
+        <v>12.9961848836823</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.08678631131873</v>
+        <v>32.23782086991933</v>
       </c>
       <c r="C20">
-        <v>13.8924454286089</v>
+        <v>23.91937651896027</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.17740438405959</v>
+        <v>7.195268656150261</v>
       </c>
       <c r="F20">
-        <v>47.00394420603101</v>
+        <v>47.90982939985071</v>
       </c>
       <c r="G20">
-        <v>3.66877650769193</v>
+        <v>2.017138445973048</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.080479593351754</v>
+        <v>5.52186609116917</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.28736948064458</v>
+        <v>20.07231457182494</v>
       </c>
       <c r="N20">
-        <v>19.66132874067529</v>
+        <v>12.9283946442119</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.80811467524649</v>
+        <v>34.53396301786199</v>
       </c>
       <c r="C21">
-        <v>14.53489067928106</v>
+        <v>25.64120106268187</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.17115000514585</v>
+        <v>7.348912681982535</v>
       </c>
       <c r="F21">
-        <v>47.46615625821958</v>
+        <v>50.5381793340707</v>
       </c>
       <c r="G21">
-        <v>3.663532091979484</v>
+        <v>1.99836232677305</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.056519979551529</v>
+        <v>5.493542818487239</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.47648042448393</v>
+        <v>21.45334922885841</v>
       </c>
       <c r="N21">
-        <v>19.60299644372536</v>
+        <v>12.71082789106356</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.27223851202079</v>
+        <v>36.00417308726153</v>
       </c>
       <c r="C22">
-        <v>14.94305021162487</v>
+        <v>26.74508919062483</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.16784632165847</v>
+        <v>7.455395486413059</v>
       </c>
       <c r="F22">
-        <v>47.77686232251883</v>
+        <v>52.26128620728612</v>
       </c>
       <c r="G22">
-        <v>3.660223236580362</v>
+        <v>1.985969480879451</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.041858255577639</v>
+        <v>5.48025619946476</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.6034859593832</v>
+        <v>22.33265370894432</v>
       </c>
       <c r="N22">
-        <v>19.56662954157828</v>
+        <v>12.57723704331876</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.02524695564501</v>
+        <v>35.22203112805439</v>
       </c>
       <c r="C23">
-        <v>14.72631285085443</v>
+        <v>26.15767723475101</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.16953792583752</v>
+        <v>7.397936234494891</v>
       </c>
       <c r="F23">
-        <v>47.61026656594899</v>
+        <v>51.34095238396021</v>
       </c>
       <c r="G23">
-        <v>3.661978425004343</v>
+        <v>1.992598739648433</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.049592106230588</v>
+        <v>5.486830246214002</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.53539879610369</v>
+        <v>21.86536086969905</v>
       </c>
       <c r="N23">
-        <v>19.58587813380882</v>
+        <v>12.6476782729523</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.07488520107378</v>
+        <v>32.19972572940591</v>
       </c>
       <c r="C24">
-        <v>13.88175508187344</v>
+        <v>23.89082960587064</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.17751986433226</v>
+        <v>7.192845223876088</v>
       </c>
       <c r="F24">
-        <v>46.99654022224569</v>
+        <v>47.86692402313638</v>
       </c>
       <c r="G24">
-        <v>3.66886423927125</v>
+        <v>2.017444076992076</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.080888006677462</v>
+        <v>5.52240906175269</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.28433837428173</v>
+        <v>20.04932372269265</v>
       </c>
       <c r="N24">
-        <v>19.66231172489482</v>
+        <v>12.93208125920115</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.02405264372042</v>
+        <v>28.78723016883529</v>
       </c>
       <c r="C25">
-        <v>12.92430148453717</v>
+        <v>21.33566221988148</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.18950529638118</v>
+        <v>6.991686551475622</v>
       </c>
       <c r="F25">
-        <v>46.37378850960855</v>
+        <v>44.12910589445089</v>
       </c>
       <c r="G25">
-        <v>3.676806147591928</v>
+        <v>2.044056401533104</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.118914017235017</v>
+        <v>5.57979733757847</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.02916367507026</v>
+        <v>17.98600411203562</v>
       </c>
       <c r="N25">
-        <v>19.75226322434237</v>
+        <v>13.26978490097704</v>
       </c>
       <c r="O25">
         <v>0</v>
